--- a/document/テスト/機能テスト仕様書_TMF様向けWEBサイト.xlsx
+++ b/document/テスト/機能テスト仕様書_TMF様向けWEBサイト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern\Downloads\02.開発-20221031T061003Z-001\02.開発\02.テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intern\Desktop\20221119\20221119_PJ_A\document\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDE1164-FC4F-49C1-B5D8-92D83A906DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1A1E0-E8EF-4094-914F-49FBFECD67CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP画面" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>機能テスト仕様書</t>
   </si>
@@ -157,6 +157,10 @@
   <si>
     <t>数字とハイフン記号のみ入力したとき、エラーメッセージを表示しない</t>
   </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -183,6 +187,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,6 +201,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -562,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,6 +618,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,21 +647,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -862,8 +871,8 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -874,16 +883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="20"/>
@@ -892,7 +901,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="29"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,25 +916,25 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44865</v>
+        <v>44884</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>8</v>
@@ -958,31 +967,31 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="30" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
@@ -992,25 +1001,29 @@
       <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
@@ -1020,25 +1033,29 @@
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="38"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
@@ -1048,25 +1065,29 @@
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="38"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
@@ -1076,25 +1097,29 @@
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="38"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
@@ -1104,25 +1129,29 @@
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="38"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
@@ -1132,25 +1161,29 @@
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="38"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
@@ -1160,25 +1193,29 @@
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="38"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
@@ -1188,25 +1225,29 @@
       <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="38"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
@@ -1216,25 +1257,29 @@
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="12">
+        <v>44884</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
@@ -1242,21 +1287,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
@@ -1264,21 +1309,21 @@
         <v>11</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
@@ -1286,97 +1331,97 @@
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="42"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
@@ -2936,21 +2981,117 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
@@ -2975,117 +3116,21 @@
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3099,8 +3144,8 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3112,16 +3157,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="40" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="20"/>
@@ -3130,7 +3175,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="29"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3145,25 +3190,25 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="24"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44865</v>
+        <v>44884</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>8</v>
@@ -3196,31 +3241,31 @@
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="30" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
@@ -3230,25 +3275,29 @@
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
@@ -3258,25 +3307,29 @@
       <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="38"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
@@ -3286,25 +3339,29 @@
       <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="38"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
@@ -3314,25 +3371,29 @@
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="38"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
@@ -3342,25 +3403,29 @@
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="38"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
@@ -3370,25 +3435,29 @@
       <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="38"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="43">
+        <v>44884</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
@@ -3396,21 +3465,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
@@ -3418,21 +3487,21 @@
         <v>8</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="38"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
@@ -3440,21 +3509,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
@@ -3462,21 +3531,21 @@
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
@@ -3484,21 +3553,21 @@
         <v>11</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
@@ -3506,21 +3575,21 @@
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
@@ -3528,21 +3597,21 @@
         <v>13</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
@@ -3550,21 +3619,21 @@
         <v>14</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
@@ -3572,97 +3641,97 @@
         <v>15</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="35"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
@@ -5219,21 +5288,126 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
@@ -5258,126 +5432,21 @@
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
